--- a/Results/Results_BTCUSDT_horizon1.xlsx
+++ b/Results/Results_BTCUSDT_horizon1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,22 +585,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.35 (0.23)</t>
+          <t>0.41 (0.21)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.37 (0.96)</t>
+          <t>1.55 (0.87)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.14 (0.10)</t>
+          <t>0.16 (0.10)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>46.00 (6.05)</t>
+          <t>45.85 (6.73)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,31 +610,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>max\_depth: 4, max\_features: 2 \\</t>
+          <t>max\_depth: 2, max\_features: 4 \\</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.22678643 0.36911349 0.55091884 0.40950574 0.56143204 0.83650488
- 0.11847996 0.19467604 0.12932826 0.1502501 ]</t>
+          <t>[0.2032817  0.25293343 0.6204393  0.44728311 0.59056065 0.84465109
+ 0.15646969 0.24839529 0.26169815 0.49509029]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.86360486 2.02475919 2.24407865 1.30538825 1.76728002 3.51388074
- 0.37358122 0.66677366 0.48637644 0.48956556]</t>
+          <t>[0.77409863 1.38745754 2.52725896 1.4258118  1.85897127 3.54810027
+ 0.4933673  0.85076433 0.9841918  1.61317132]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.13763286 0.04839796 0.12082749 0.16861555 0.31756735 0.32292376
- 0.06617523 0.07834405 0.0504319  0.04680705]</t>
+          <t>[0.12199751 0.03484495 0.13804245 0.19193552 0.34417654 0.3338084
+ 0.07751811 0.10602808 0.11999378 0.14648269]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.46153846 47.69230769 40.         44.61538462 38.46153846 46.15384615
- 56.92307692 55.38461538 44.61538462 47.69230769]</t>
+          <t>[36.92307692 49.23076923 43.07692308 40.         38.46153846 46.15384615
+ 60.         46.15384615 44.61538462 53.84615385]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.35 $\pm$ 0.23 &amp; 1.37 $\pm$ 0.96 &amp; 0.14 $\pm$ 10.02 &amp; 46.00 $\pm$ 6.05 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.41 $\pm$ 0.21 &amp; 1.55 $\pm$ 0.87 &amp; 0.16 $\pm$ 9.71 &amp; 45.85 $\pm$ 6.73 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.38 (0.23)</t>
+          <t>0.37 (0.23)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.41 (0.94)</t>
+          <t>1.39 (0.95)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.15 (0.10)</t>
+          <t>0.15 (0.11)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>48.77 (2.29)</t>
+          <t>47.54 (2.62)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 2, max\_features: 4, n\_estimators: 200 \\</t>
+          <t>max\_depth: 2, max\_features: 4, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.16536556 0.16354633 0.62854666 0.44581962 0.59717595 0.84693778
- 0.14449775 0.21326465 0.23594789 0.32212266]</t>
+          <t>[0.16696382 0.16019553 0.61897096 0.45160964 0.59365665 0.85406191
+ 0.14464602 0.17694785 0.23186197 0.31881055]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.62971362 0.89712767 2.56028297 1.42114663 1.87979498 3.55770592
- 0.45561837 0.7304404  0.88735051 1.04958438]</t>
+          <t>[0.63579981 0.87874699 2.52127793 1.43960357 1.8687169  3.58763203
+ 0.45608589 0.60605384 0.8719842  1.03879241]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.09641551 0.02054421 0.14039755 0.19039781 0.3533187  0.33474924
- 0.06919694 0.10025153 0.10517795 0.10397817]</t>
+          <t>[0.0979945  0.01999173 0.13772533 0.19330735 0.34993392 0.33762577
+ 0.06940766 0.08133396 0.09731925 0.10536454]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[47.69230769 44.61538462 49.23076923 47.69230769 52.30769231 46.15384615
- 49.23076923 49.23076923 52.30769231 49.23076923]</t>
+          <t>[43.07692308 46.15384615 44.61538462 49.23076923 46.15384615 47.69230769
+ 47.69230769 47.69230769 52.30769231 50.76923077]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.38 $\pm$ 0.23 &amp; 1.41 $\pm$ 0.94 &amp; 0.15 $\pm$ 10.49 &amp; 48.77 $\pm$ 2.29 &amp; "-"</t>
+          <t>Random Forest &amp; 0.37 $\pm$ 0.23 &amp; 1.39 $\pm$ 0.95 &amp; 0.15 $\pm$ 10.62 &amp; 47.54 $\pm$ 2.62 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -838,19 +838,19 @@
       <c r="I6" t="inlineStr">
         <is>
           <t>[0.39892149 0.81846046 0.94953617 0.61817605 0.87354767 1.41439556
- 0.40988714 0.33084349 0.41595094 0.43717689]</t>
+ 0.40988712 0.33084349 0.41595094 0.43717689]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>[1.51909679 4.48963636 3.86778175 1.97057008 2.74975995 5.94140865
- 1.29242231 1.1331529  1.56430418 1.42446992]</t>
+ 1.29242225 1.1331529  1.56430418 1.42446992]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>[0.25972421 0.12547465 0.22435732 0.32034933 0.61019855 0.58586798
- 0.23101738 0.15027884 0.19400977 0.15981191]</t>
+ 0.23101737 0.15027884 0.19400977 0.15981191]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.70 (0.29)</t>
+          <t>0.71 (0.29)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>47.85 (3.86)</t>
+          <t>48.77 (3.58)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -911,26 +911,26 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.2985297  0.48823096 0.81798154 0.54589197 0.77758807 1.42036895
- 0.60493339 0.49856668 0.7012474  0.896253  ]</t>
+          <t>[0.29059325 0.49949384 0.81692254 0.54772011 0.77723312 1.42103015
+ 0.60360868 0.50272285 0.69868949 0.8944293 ]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[1.13680392 2.6781739  3.33191526 1.74014891 2.44769762 5.96650086
- 1.90742605 1.7076119  2.63724431 2.92029487]</t>
+          <t>[1.10658184 2.73995606 3.32760161 1.7459765  2.44658029 5.96927837
+ 1.90324907 1.72184694 2.62762451 2.91435263]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.19060506 0.0724331  0.1903741  0.26404484 0.52054176 0.58435084
- 0.35399822 0.22251674 0.32506214 0.32330404]</t>
+          <t>[0.18565746 0.07450375 0.19010547 0.26485039 0.51990226 0.58465689
+ 0.35339822 0.22177977 0.32475449 0.32279606]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[46.15384615 56.92307692 43.07692308 47.69230769 44.61538462 47.69230769
- 47.69230769 52.30769231 47.69230769 44.61538462]</t>
+          <t>[43.07692308 50.76923077 44.61538462 49.23076923 46.15384615 46.15384615
+ 49.23076923 55.38461538 52.30769231 50.76923077]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.70 $\pm$ 0.29 &amp; 2.65 $\pm$ 1.27 &amp; 0.30 $\pm$ 14.71 &amp; 47.85 $\pm$ 3.86 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.71 $\pm$ 0.29 &amp; 2.65 $\pm$ 1.27 &amp; 0.30 $\pm$ 14.72 &amp; 48.77 $\pm$ 3.58 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.20 (0.18)</t>
+          <t>0.18 (0.15)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.86 (0.95)</t>
+          <t>0.75 (0.74)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>46.31 (6.76)</t>
+          <t>46.31 (5.86)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1133,26 +1133,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.27090383 0.57337948 0.53817717 0.11866119 0.0834465  0.11851527
- 0.08405713 0.07765987 0.08111233 0.08896904]</t>
+          <t>[0.2710702  0.4298249  0.47889232 0.10984216 0.0865973  0.10071213
+ 0.08594275 0.07769424 0.08189084 0.0901434 ]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[1.03160435 3.14525317 2.1921775  0.37825826 0.26267354 0.49784351
- 0.265042   0.26598831 0.30504644 0.28989117]</t>
+          <t>[1.03223788 2.35778949 1.95069028 0.35014569 0.27259164 0.4230584
+ 0.27098758 0.26610604 0.30797425 0.29371762]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.15300744 0.08476175 0.12413631 0.05790434 0.04702138 0.04124058
- 0.04502075 0.03345227 0.03058411 0.02621738]</t>
+          <t>[0.15346417 0.05860457 0.10973001 0.05346614 0.04936544 0.03350749
+ 0.04642186 0.03378985 0.0308938  0.02666281]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[41.53846154 52.30769231 43.07692308 55.38461538 55.38461538 38.46153846
- 53.84615385 44.61538462 40.         38.46153846]</t>
+          <t>[41.53846154 49.23076923 43.07692308 55.38461538 53.84615385 40.
+ 53.84615385 44.61538462 41.53846154 40.        ]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.20 $\pm$ 0.18 &amp; 0.86 $\pm$ 0.95 &amp; 0.06 $\pm$ 4.08 &amp; 46.31 $\pm$ 6.76 &amp; "-"</t>
+          <t>MLP &amp; 0.18 $\pm$ 0.15 &amp; 0.75 $\pm$ 0.74 &amp; 0.06 $\pm$ 3.86 &amp; 46.31 $\pm$ 5.86 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1177,22 +1177,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.23 (0.20)</t>
+          <t>0.18 (0.12)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.92 (0.86)</t>
+          <t>0.71 (0.51)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.08 (0.06)</t>
+          <t>0.07 (0.06)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>47.69 (6.34)</t>
+          <t>48.00 (6.37)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.34317491 0.39250531 0.6675935  0.39409241 0.07869213 0.09795579
- 0.08126174 0.07854555 0.08231959 0.09296217]</t>
+          <t>[0.34149221 0.29370844 0.29938714 0.36524185 0.07542579 0.10812457
+ 0.08248047 0.08330684 0.0822581  0.09226491]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[1.3068133  2.15307419 2.71933394 1.25625493 0.2477077  0.41147994
- 0.25622782 0.26902182 0.30958669 0.30290213]</t>
+          <t>[1.30040555 1.6111274  1.219505   1.16428753 0.23742586 0.4541956
+ 0.26007061 0.28532943 0.30935544 0.30063024]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.1820616  0.05390169 0.15135754 0.19604233 0.04385599 0.03306289
- 0.04380879 0.03366258 0.03141828 0.02808418]</t>
+          <t>[0.1800537  0.03438923 0.06170851 0.17185606 0.04072166 0.03617847
+ 0.04470641 0.03545652 0.03124417 0.02762676]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[41.53846154 49.23076923 50.76923077 52.30769231 56.92307692 40.
- 55.38461538 44.61538462 49.23076923 36.92307692]</t>
+          <t>[41.53846154 49.23076923 50.76923077 53.84615385 56.92307692 40.
+ 55.38461538 47.69230769 47.69230769 36.92307692]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.23 $\pm$ 0.20 &amp; 0.92 $\pm$ 0.86 &amp; 0.08 $\pm$ 6.46 &amp; 47.69 $\pm$ 6.34 &amp; "-"</t>
+          <t>CNN &amp; 0.18 $\pm$ 0.12 &amp; 0.71 $\pm$ 0.51 &amp; 0.07 $\pm$ 5.55 &amp; 48.00 $\pm$ 6.37 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.05 (0.53)</t>
+          <t>0.96 (0.39)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.92 (2.04)</t>
+          <t>3.63 (1.69)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.45 (0.24)</t>
+          <t>0.42 (0.20)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>46.62 (6.23)</t>
+          <t>46.15 (5.84)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1281,26 +1281,26 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.26060741 0.82825984 0.95785392 0.62078884 0.89827567 1.95291198
- 0.97006918 0.84000717 1.09464703 2.05263783]</t>
+          <t>[0.26060873 0.83620395 0.95301227 0.62095545 0.89755479 1.80114428
+ 0.97145357 0.83968675 1.0943297  1.36345869]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.99239547 4.54339052 3.90166275 1.97889891 2.82759896 8.20353828
- 3.05874206 2.87705997 4.11673775 6.68818706]</t>
+          <t>[0.9924005  4.58696762 3.88194109 1.97943001 2.82532975 7.56601228
+ 3.06310722 2.8759625  4.11554434 4.44260875]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.14727313 0.1271205  0.22645513 0.32246629 0.6274296  0.81298367
- 0.57630647 0.3951598  0.51944217 0.78414693]</t>
+          <t>[0.14708981 0.1284087  0.22521072 0.32259646 0.62679151 0.74797366
+ 0.57729345 0.39497951 0.51927724 0.50854897]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[41.53846154 47.69230769 43.07692308 40.         38.46153846 49.23076923
- 60.         46.15384615 46.15384615 53.84615385]</t>
+          <t>[41.53846154 47.69230769 43.07692308 40.         38.46153846 46.15384615
+ 58.46153846 46.15384615 46.15384615 53.84615385]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 1.05 $\pm$ 0.53 &amp; 3.92 $\pm$ 2.04 &amp; 0.45 $\pm$ 23.68 &amp; 46.62 $\pm$ 6.23 &amp; "-"</t>
+          <t>RNN &amp; 0.96 $\pm$ 0.39 &amp; 3.63 $\pm$ 1.69 &amp; 0.42 $\pm$ 20.01 &amp; 46.15 $\pm$ 5.84 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,22 +1325,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.46 (0.34)</t>
+          <t>0.43 (0.32)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.81 (1.50)</t>
+          <t>1.75 (1.50)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.18 (0.17)</t>
+          <t>0.16 (0.12)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>42.46 (4.47)</t>
+          <t>43.23 (5.44)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,26 +1355,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.26065264 0.82354224 0.94335822 0.61878248 0.89609959 0.62436594
- 0.09267338 0.09718881 0.10099244 0.10380427]</t>
+          <t>[0.26061102 0.80865369 0.95044159 0.61860759 0.56918418 0.75299776
+ 0.09151137 0.09243432 0.09698411 0.10523651]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.99256773 4.51751226 3.84261685 1.9725032  2.82074906 2.62275511
- 0.29221005 0.33287577 0.37981135 0.33822935]</t>
+          <t>[0.99240922 4.43584165 3.87146982 1.97194572 1.79168227 3.16309492
+ 0.28854611 0.31659143 0.36473687 0.34289608]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.14858774 0.12635522 0.22272809 0.32089777 0.62550333 0.2376918
- 0.04674115 0.04296334 0.03832466 0.03235809]</t>
+          <t>[0.14769111 0.12393855 0.22454985 0.32076105 0.3243616  0.29319817
+ 0.04813122 0.03963944 0.03664807 0.03166906]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[36.92307692 40.         40.         46.15384615 49.23076923 43.07692308
- 49.23076923 43.07692308 41.53846154 35.38461538]</t>
+          <t>[38.46153846 46.15384615 44.61538462 41.53846154 53.84615385 40.
+ 49.23076923 44.61538462 40.         33.84615385]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 0.46 $\pm$ 0.34 &amp; 1.81 $\pm$ 1.50 &amp; 0.18 $\pm$ 17.48 &amp; 42.46 $\pm$ 4.47 &amp; "-"</t>
+          <t>LSTM &amp; 0.43 $\pm$ 0.32 &amp; 1.75 $\pm$ 1.50 &amp; 0.16 $\pm$ 11.61 &amp; 43.23 $\pm$ 5.44 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,17 +1399,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.72 (0.87)</t>
+          <t>1.72 (0.81)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.96 (5.24)</t>
+          <t>6.91 (4.87)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.68 (0.13)</t>
+          <t>0.69 (0.13)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1429,20 +1429,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.6239978  3.86360529 2.42298353 1.17142824 1.06397245 2.08761142
- 1.2910953  1.40197014 1.45136225 1.83033328]</t>
+          <t>[0.65277724 3.5841623  2.63152458 1.14719543 1.12103631 2.07826623
+ 1.31411911 1.42076934 1.44948323 1.80032123]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[ 2.37618951 21.19367223  9.86963085  3.73418128  3.34918053  8.76936611
-  4.07097513  4.80180682  5.45826881  5.96384377]</t>
+          <t>[ 2.48578189 19.66079745 10.71908902  3.65693395  3.52880656  8.73011007
+  4.14357191  4.86619484  5.45120219  5.86605438]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.36177631 0.61004721 0.59535517 0.72281279 0.77251602 0.87061874
- 0.80193476 0.70318194 0.70346017 0.69563715]</t>
+          <t>[0.38360437 0.56576484 0.64742598 0.7058064  0.82191327 0.8666218
+ 0.81793655 0.71332615 0.70249625 0.68366672]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 1.72 $\pm$ 0.87 &amp; 6.96 $\pm$ 5.24 &amp; 0.68 $\pm$ 13.27 &amp; 46.31 $\pm$ 6.17 &amp; "-"</t>
+          <t>GRU &amp; 1.72 $\pm$ 0.81 &amp; 6.91 $\pm$ 4.87 &amp; 0.69 $\pm$ 13.31 &amp; 46.31 $\pm$ 6.17 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1473,22 +1473,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.15 (0.11)</t>
+          <t>0.13 (0.08)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.59 (0.49)</t>
+          <t>0.52 (0.36)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.05 (0.04)</t>
+          <t>0.05 (0.03)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>47.23 (5.80)</t>
+          <t>46.31 (6.09)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.26831217 0.2136055  0.41882725 0.05693046 0.07690205 0.10746162
- 0.08196268 0.08428684 0.08501905 0.09208132]</t>
+          <t>[0.26078223 0.1775033  0.29847098 0.063175   0.07568792 0.10707908
+ 0.08192027 0.08303156 0.08543175 0.09359207]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[1.02173528 1.17172551 1.70602494 0.18147818 0.24207286 0.45141076
- 0.25843795 0.28868598 0.31973881 0.30003202]</t>
+          <t>[0.99306121 0.97368815 1.21577317 0.201384   0.23825101 0.44980386
+ 0.25830424 0.28438661 0.32129089 0.30495456]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.14231753 0.02637523 0.08781154 0.02515787 0.04159406 0.03632502
- 0.04467479 0.03717042 0.0323223  0.02700602]</t>
+          <t>[0.14476723 0.0207458  0.0614496  0.02886325 0.04073476 0.03622416
+ 0.04491242 0.03684494 0.03231142 0.02779241]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[41.53846154 49.23076923 53.84615385 52.30769231 53.84615385 40.
- 53.84615385 44.61538462 44.61538462 38.46153846]</t>
+          <t>[41.53846154 49.23076923 53.84615385 49.23076923 55.38461538 38.46153846
+ 52.30769231 43.07692308 41.53846154 38.46153846]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.15 $\pm$ 0.11 &amp; 0.59 $\pm$ 0.49 &amp; 0.05 $\pm$ 3.52 &amp; 47.23 $\pm$ 5.80 &amp; "-"</t>
+          <t>WaveNet &amp; 0.13 $\pm$ 0.08 &amp; 0.52 $\pm$ 0.36 &amp; 0.05 $\pm$ 3.41 &amp; 46.31 $\pm$ 6.09 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,66 +1547,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.11 (0.03)</t>
+          <t>0.09 (0.03)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.43 (0.21)</t>
+          <t>0.37 (0.17)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.04 (0.01)</t>
+          <t>0.03 (0.02)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>45.38 (7.70)</t>
+          <t>48.00 (9.07)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>omega: 250, r: 0.1 \\</t>
+          <t>omega: 1000, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.11467594 0.16522313 0.12711605 0.07835367 0.07009405 0.15756614
- 0.0793107  0.1278406  0.08406083 0.08416474]</t>
+          <t>[0.13526918 0.13853029 0.12007616 0.06487531 0.06669825 0.09851481
+ 0.08204664 0.07197402 0.07591511 0.0842963 ]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0.43668708 0.90632574 0.51778663 0.24976931 0.22064257 0.66188331
- 0.25007596 0.43785945 0.31613514 0.27423713]</t>
+          <t>[0.51510632 0.75990306 0.4891108  0.2068041  0.20995325 0.41382816
+ 0.25870268 0.24651404 0.28550078 0.2746658 ]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.06239545 0.0197891  0.0220973  0.03547705 0.03761375 0.05414834
- 0.04116897 0.04985146 0.03322818 0.02507866]</t>
+          <t>[0.07383743 0.01470802 0.02236469 0.0263104  0.03650338 0.03266846
+ 0.04289256 0.02912215 0.02859983 0.02483758]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[53.84615385 38.46153846 41.53846154 50.76923077 61.53846154 38.46153846
- 44.61538462 47.69230769 35.38461538 41.53846154]</t>
+          <t>[58.46153846 35.38461538 40.         60.         63.07692308 40.
+ 47.69230769 49.23076923 41.53846154 44.61538462]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[4. 4. 4. 4. 4. 4. 4. 5. 5. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.11 $\pm$ 0.03 &amp; 0.43 $\pm$ 0.21 &amp; 0.04 $\pm$ 1.34 &amp; 45.38 $\pm$ 7.70 &amp; 4 $\pm$ 0</t>
+          <t>eTS &amp; 0.09 $\pm$ 0.03 &amp; 0.37 $\pm$ 0.17 &amp; 0.03 $\pm$ 1.54 &amp; 48.00 $\pm$ 9.07 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,66 +1621,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.15 (0.07)</t>
+          <t>0.09 (0.03)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.61 (0.39)</t>
+          <t>0.36 (0.17)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.06 (0.03)</t>
+          <t>0.03 (0.01)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>48.77 (7.05)</t>
+          <t>47.23 (8.51)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>33 (19)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>omega: 500, r: 0.5 \\</t>
+          <t>omega: 750, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.21619281 0.25943855 0.24875701 0.16731486 0.10327583 0.21309885
- 0.08478828 0.07492182 0.07551056 0.08559487]</t>
+          <t>[0.1258771  0.13881202 0.12070981 0.06510057 0.06700873 0.09805934
+ 0.08199529 0.07190726 0.07586032 0.08424672]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.82326424 1.42314111 1.01327138 0.53335236 0.32509243 0.89515789
- 0.2673474  0.25661038 0.28397937 0.27889699]</t>
+          <t>[0.47934118 0.76144848 0.49169183 0.20752217 0.21093059 0.41191489
+ 0.25854078 0.24628541 0.28529475 0.27450425]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.14378176 0.03526912 0.05265283 0.07326128 0.05593726 0.07708447
- 0.04567807 0.03090689 0.02846078 0.02485694]</t>
+          <t>[0.06842935 0.01476523 0.02248945 0.0263873  0.03653917 0.03246017
+ 0.0428008  0.02909489 0.02860168 0.02478741]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[61.53846154 47.69230769 49.23076923 49.23076923 58.46153846 44.61538462
- 49.23076923 50.76923077 40.         36.92307692]</t>
+          <t>[56.92307692 35.38461538 40.         58.46153846 61.53846154 40.
+ 46.15384615 49.23076923 41.53846154 43.07692308]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[71. 38. 10. 66. 27. 23. 23. 23. 23. 23.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.15 $\pm$ 0.07 &amp; 0.61 $\pm$ 0.39 &amp; 0.06 $\pm$ 3.37 &amp; 48.77 $\pm$ 7.05 &amp; 33 $\pm$ 19</t>
+          <t>Simpl\_eTS &amp; 0.09 $\pm$ 0.03 &amp; 0.36 $\pm$ 0.17 &amp; 0.03 $\pm$ 1.40 &amp; 47.23 $\pm$ 8.51 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,22 +1695,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.13 (0.05)</t>
+          <t>0.15 (0.10)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.50 (0.27)</t>
+          <t>0.55 (0.32)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.05 (0.03)</t>
+          <t>0.06 (0.06)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>47.38 (7.87)</t>
+          <t>46.00 (8.15)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1720,41 +1720,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>mu: 0.5, omega: 50 \\</t>
+          <t>mu: 0.5, omega: 1000 \\</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.18813203 0.18959762 0.15069309 0.08147526 0.11770039 0.20001154
- 0.0879322  0.09769679 0.08056733 0.08389269]</t>
+          <t>[0.17600372 0.14443368 0.11564794 0.0783582  0.41987574 0.1831325
+ 0.09541215 0.10957358 0.08056391 0.08604763]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.71640853 1.04003116 0.61382389 0.25972005 0.37049819 0.84018241
- 0.27726057 0.33461562 0.30299683 0.27335071]</t>
+          <t>[0.67022381 0.79228594 0.47107315 0.24978375 1.32168802 0.76927914
+ 0.30084572 0.37529413 0.30298397 0.28037224]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.11853367 0.02431782 0.02964839 0.03640164 0.06556006 0.0730178
- 0.04913695 0.04245514 0.03064561 0.02482729]</t>
+          <t>[0.1026719  0.01591101 0.01955679 0.03058482 0.23536753 0.06510984
+ 0.0534842  0.04748504 0.03048088 0.02612927]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[61.53846154 41.53846154 43.07692308 55.38461538 58.46153846 40.
- 41.53846154 49.23076923 44.61538462 38.46153846]</t>
+          <t>[52.30769231 32.30769231 40.         63.07692308 52.30769231 41.53846154
+ 44.61538462 49.23076923 44.61538462 40.        ]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[ 4.  4.  4.  4.  6.  8. 10. 10. 10. 10.]</t>
+          <t>[ 3.  3.  3.  3.  6.  8. 10. 10. 10. 10.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.13 $\pm$ 0.05 &amp; 0.50 $\pm$ 0.27 &amp; 0.05 $\pm$ 2.79 &amp; 47.38 $\pm$ 7.87 &amp; 7 $\pm$ 3</t>
+          <t>exTS &amp; 0.15 $\pm$ 0.10 &amp; 0.55 $\pm$ 0.32 &amp; 0.06 $\pm$ 6.26 &amp; 46.00 $\pm$ 8.15 &amp; 7 $\pm$ 3</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.10 (1.00)</t>
+          <t>0.12 (0.07)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.97 (3.60)</t>
+          <t>0.48 (0.32)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.52 (0.48)</t>
+          <t>0.05 (0.03)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>46.62 (10.30)</t>
+          <t>47.23 (9.92)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1794,31 +1794,31 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.1, lambda1: 0.001, r: 0.1, s: 10000 \\</t>
+          <t>alpha: 0.001, beta: 0.1, lambda1: 0.1, omega: 10000, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[0.23956252 0.14165461 0.11919583 0.06464302 0.06481275 2.17408687
- 1.62811865 1.95981065 2.0243429  2.61325612]</t>
+          <t>[0.23956252 0.14165461 0.11919583 0.06464302 0.06481275 0.27335266
+ 0.08855191 0.07559489 0.07548571 0.08529816]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[0.91225633 0.77704144 0.4855249  0.20606362 0.20401805 9.13262093
- 5.13364935 6.71243408 7.61312877 8.51487071]</t>
+          <t>[0.91225633 0.77704144 0.4855249  0.20606362 0.20401805 1.14826425
+ 0.27921457 0.25891567 0.28388591 0.2779302 ]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.12092317 0.01476577 0.02210929 0.02632178 0.0359145  0.90808472
- 1.0347036  1.00642381 0.99635968 1.00676844]</t>
+          <t>[0.12092317 0.01476577 0.02210929 0.02632178 0.0359145  0.09826428
+ 0.04823826 0.03085743 0.02812003 0.02552555]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[58.46153846 36.92307692 30.76923077 63.07692308 60.         41.53846154
- 46.15384615 49.23076923 38.46153846 41.53846154]</t>
+          <t>[58.46153846 36.92307692 30.76923077 63.07692308 60.         43.07692308
+ 47.69230769 47.69230769 41.53846154 43.07692308]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ePL &amp; 1.10 $\pm$ 1.00 &amp; 3.97 $\pm$ 3.60 &amp; 0.52 $\pm$ 47.50 &amp; 46.62 $\pm$ 10.30 &amp; 2 $\pm$ 0</t>
+          <t>ePL &amp; 0.12 $\pm$ 0.07 &amp; 0.48 $\pm$ 0.32 &amp; 0.05 $\pm$ 3.37 &amp; 47.23 $\pm$ 9.92 &amp; 2 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1843,66 +1843,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.34 (0.21)</t>
+          <t>0.27 (0.19)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.30 (0.86)</t>
+          <t>1.03 (0.77)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.13 (0.10)</t>
+          <t>0.11 (0.10)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>49.38 (4.54)</t>
+          <t>48.46 (6.09)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>48 (37)</t>
+          <t>53 (40)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.56584169 0.17305892 0.56411016 0.29606739 0.54483981 0.6921466
- 0.1212537  0.1575396  0.16956001 0.13532929]</t>
+          <t>[0.44430216 0.15539594 0.149644   0.22888069 0.51951369 0.69158717
+ 0.11878521 0.15369747 0.14898419 0.13523388]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[2.15473049 0.94930866 2.29781135 0.94377895 1.71505087 2.9074793
- 0.38232717 0.53957978 0.6376796  0.44094851]</t>
+          <t>[1.69190681 0.852419   0.60955059 0.72960679 1.63532912 2.90512931
+ 0.37454371 0.52642031 0.56029828 0.44063764]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.25175264 0.0206177  0.1216933  0.10663737 0.29166683 0.26938217
- 0.06521363 0.05995601 0.06710819 0.04079528]</t>
+          <t>[0.21742241 0.01812545 0.02635075 0.07273954 0.29679714 0.2691068
+ 0.064487   0.05912831 0.0618792  0.03972717]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[44.61538462 53.84615385 55.38461538 55.38461538 47.69230769 47.69230769
- 44.61538462 53.84615385 47.69230769 43.07692308]</t>
+          <t>[44.61538462 33.84615385 47.69230769 56.92307692 53.84615385 50.76923077
+ 46.15384615 53.84615385 49.23076923 47.69230769]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[  5.  13.  11.  15.  25.  48.  71.  87.  97. 106.]</t>
+          <t>[  6.  14.  14.  18.  30.  54.  77.  94. 106. 115.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.34 $\pm$ 0.21 &amp; 1.30 $\pm$ 0.86 &amp; 0.13 $\pm$ 9.69 &amp; 49.38 $\pm$ 4.54 &amp; 48 $\pm$ 37</t>
+          <t>eMG &amp; 0.27 $\pm$ 0.19 &amp; 1.03 $\pm$ 0.77 &amp; 0.11 $\pm$ 10.02 &amp; 48.46 $\pm$ 6.09 &amp; 53 $\pm$ 40</t>
         </is>
       </c>
     </row>
@@ -1917,66 +1917,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.18 (0.12)</t>
+          <t>0.10 (0.05)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.68 (0.43)</t>
+          <t>0.41 (0.24)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.07 (0.07)</t>
+          <t>0.04 (0.03)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>46.62 (6.78)</t>
+          <t>47.08 (10.14)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5 (3)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.05, lambda1: 0.75, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.27485675 0.14286325 0.12133974 0.06320605 0.44288909 0.33347074
- 0.10286503 0.10315827 0.1024438  0.12284745]</t>
+          <t>[0.23956252 0.14165461 0.11919583 0.06464302 0.06481275 0.10254401
+ 0.08211066 0.07225724 0.07619404 0.08449171]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[1.0466571  0.78367138 0.49425776 0.20148298 1.39412964 1.40080047
- 0.32434553 0.35332144 0.38526964 0.40027846]</t>
+          <t>[0.91225633 0.77704144 0.4855249  0.20606362 0.20401805 0.43075353
+ 0.25890457 0.24748411 0.2865498  0.27530253]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.13408642 0.01529217 0.02102063 0.02536262 0.25109897 0.12186554
- 0.05446325 0.0435281  0.04082487 0.03571498]</t>
+          <t>[0.12092317 0.01476577 0.02210929 0.02632178 0.0359145  0.03436575
+ 0.04310596 0.02921018 0.02862697 0.02502816]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[55.38461538 35.38461538 41.53846154 60.         47.69230769 40.
- 44.61538462 46.15384615 47.69230769 47.69230769]</t>
+          <t>[58.46153846 36.92307692 30.76923077 63.07692308 60.         40.
+ 46.15384615 49.23076923 40.         46.15384615]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[1. 3. 2. 2. 3. 6. 8. 8. 7. 8.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.18 $\pm$ 0.12 &amp; 0.68 $\pm$ 0.43 &amp; 0.07 $\pm$ 7.05 &amp; 46.62 $\pm$ 6.78 &amp; 5 $\pm$ 3</t>
+          <t>ePL+ &amp; 0.10 $\pm$ 0.05 &amp; 0.41 $\pm$ 0.24 &amp; 0.04 $\pm$ 2.86 &amp; 47.08 $\pm$ 10.14 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.80 (1.24)</t>
+          <t>0.56 (0.36)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.80 (4.00)</t>
+          <t>2.20 (1.61)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.30 (0.38)</t>
+          <t>0.17 (0.10)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>48.46 (8.06)</t>
+          <t>50.46 (6.45)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15 (7)</t>
+          <t>18 (2)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.05, lambda1: 1e-07, sigma: 10 \\</t>
+          <t>alpha: 0.05, beta: 0.1, e\_utility: 0.05, lambda1: 1e-07, sigma: 1 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[1.06747264 0.15942313 0.30790953 0.19750724 0.18069172 0.40231042
- 0.43051454 0.31887073 0.52915073 4.4334049 ]</t>
+          <t>[0.33508119 0.67338101 1.16749921 0.5807973  0.61524053 1.2185131
+ 0.40094745 0.25880966 0.17748743 0.16215649]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[ 4.06494589  0.87451005  1.2542196   0.62959713  0.56878275  1.68997319
-  1.35746293  1.09214567  1.99002484 14.44552995]</t>
+          <t>[1.27599232 3.69380808 4.75561888 1.85141721 1.9366588  5.11857109
+ 1.26423441 0.886434   0.66749298 0.5283606 ]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.67993607 0.0201954  0.05919653 0.07154054 0.09768141 0.14458746
- 0.2684921  0.13055226 0.22188208 1.31208724]</t>
+          <t>[0.19287854 0.07566167 0.21295966 0.18288526 0.31517357 0.3442341
+ 0.14279487 0.0972738  0.06379497 0.04774614]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[41.53846154 52.30769231 58.46153846 50.76923077 61.53846154 44.61538462
- 43.07692308 41.53846154 35.38461538 55.38461538]</t>
+          <t>[58.46153846 43.07692308 61.53846154 53.84615385 53.84615385 46.15384615
+ 52.30769231 46.15384615 40.         49.23076923]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[ 3.  3.  6. 15. 20. 20. 20. 20. 20. 20.]</t>
+          <t>[15. 15. 20. 20. 20. 20. 18. 18. 18. 18.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 0.80 $\pm$ 1.24 &amp; 2.80 $\pm$ 4.00 &amp; 0.30 $\pm$ 38.18 &amp; 48.46 $\pm$ 8.06 &amp; 15 $\pm$ 7</t>
+          <t>ePL-KRLS-DISCO &amp; 0.56 $\pm$ 0.36 &amp; 2.20 $\pm$ 1.61 &amp; 0.17 $\pm$ 9.75 &amp; 50.46 $\pm$ 6.45 &amp; 18 $\pm$ 2</t>
         </is>
       </c>
     </row>
@@ -2065,22 +2065,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.55 (0.54)</t>
+          <t>0.53 (0.54)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.11 (2.25)</t>
+          <t>2.04 (2.24)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.20 (0.19)</t>
+          <t>0.19 (0.19)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>45.38 (6.75)</t>
+          <t>46.46 (5.28)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2090,31 +2090,31 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: min, rules: 19 \\</t>
+          <t>fuzzy\_operator: minmax, rules: 19 \\</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.28056472 0.18718534 1.67071119 0.63194922 0.70528912 1.43789418
- 0.27178371 0.10895709 0.08922356 0.10344914]</t>
+          <t>[0.26179346 0.14921299 1.62947576 0.62777606 0.7039222  1.43417349
+ 0.19837961 0.11617429 0.09529697 0.10441374]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[1.0683931  1.02679864 6.80537135 2.01447506 2.22011441 6.04011858
- 0.85696598 0.37318261 0.33555109 0.33707222]</t>
+          <t>[0.99691196 0.81850264 6.6374055  2.00117219 2.21581161 6.02448919
+ 0.6255142  0.39790185 0.3583919  0.34021522]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.16202986 0.02316998 0.33835231 0.26069983 0.44307472 0.58746521
- 0.11606195 0.04610417 0.03413209 0.03034143]</t>
+          <t>[0.14521763 0.01749427 0.32246316 0.25682595 0.43376993 0.58102499
+ 0.07353746 0.05036619 0.03616805 0.03016717]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[53.84615385 33.84615385 52.30769231 52.30769231 43.07692308 43.07692308
- 38.46153846 46.15384615 52.30769231 38.46153846]</t>
+          <t>[55.38461538 35.38461538 47.69230769 53.84615385 43.07692308 44.61538462
+ 44.61538462 46.15384615 47.69230769 46.15384615]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.55 $\pm$ 0.54 &amp; 2.11 $\pm$ 2.25 &amp; 0.20 $\pm$ 18.75 &amp; 45.38 $\pm$ 6.75 &amp; 18 $\pm$ 2</t>
+          <t>NMR &amp; 0.53 $\pm$ 0.54 &amp; 2.04 $\pm$ 2.24 &amp; 0.19 $\pm$ 18.66 &amp; 46.46 $\pm$ 5.28 &amp; 18 $\pm$ 2</t>
         </is>
       </c>
     </row>
@@ -2139,22 +2139,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.10 (0.04)</t>
+          <t>0.14 (0.06)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.39 (0.19)</t>
+          <t>0.53 (0.28)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.04 (0.02)</t>
+          <t>0.05 (0.05)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>46.62 (9.36)</t>
+          <t>43.85 (7.91)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2164,31 +2164,31 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.95, rules: 1 \\</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[0.1860799  0.13879799 0.11679289 0.06612252 0.06874887 0.10605586
- 0.0859119  0.0751312  0.07669211 0.08447599]</t>
+          <t>[0.31408771 0.16216199 0.13690859 0.14805472 0.13065592 0.12952136
+ 0.09846214 0.09415985 0.07635993 0.09806899]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.708594   0.76137155 0.47573692 0.21077987 0.21640821 0.44550565
- 0.27089031 0.25732754 0.28842293 0.2752513 ]</t>
+          <t>[1.19604896 0.88953396 0.55767498 0.47195649 0.4112797  0.54407644
+ 0.31046268 0.32250144 0.28717367 0.3195419 ]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.10230637 0.01459454 0.02098502 0.0267519  0.03909875 0.03559361
- 0.04590843 0.0299154  0.02897636 0.02535013]</t>
+          <t>[0.18476389 0.0181308  0.02594921 0.05678688 0.06410818 0.04462131
+ 0.05428242 0.03856916 0.02934463 0.02984598]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[60.         35.38461538 35.38461538 61.53846154 55.38461538 40.
- 49.23076923 49.23076923 40.         40.        ]</t>
+          <t>[52.30769231 35.38461538 32.30769231 56.92307692 47.69230769 40.
+ 50.76923077 47.69230769 40.         35.38461538]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NTSK-RLS &amp; 0.10 $\pm$ 0.04 &amp; 0.39 $\pm$ 0.19 &amp; 0.04 $\pm$ 2.34 &amp; 46.62 $\pm$ 9.36 &amp; 1 $\pm$ 0</t>
+          <t>NTSK-RLS &amp; 0.14 $\pm$ 0.06 &amp; 0.53 $\pm$ 0.28 &amp; 0.05 $\pm$ 4.56 &amp; 43.85 $\pm$ 7.91 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2287,22 +2287,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.77 (0.39)</t>
+          <t>0.52 (0.54)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.03 (1.88)</t>
+          <t>2.00 (2.24)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.31 (0.16)</t>
+          <t>0.19 (0.19)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>49.85 (4.36)</t>
+          <t>43.54 (6.19)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2312,31 +2312,31 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: CPPM, fuzzy\_operator: max, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: MAE, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.29620149 1.09613914 1.17911987 0.72705794 0.81587488 1.39915664
- 0.34947208 0.1133574  0.75906391 1.0019164 ]</t>
+          <t>[0.14032243 0.15660791 1.61475415 0.62463091 0.70403924 1.43400617
+ 0.18991982 0.12034707 0.10262858 0.11583412]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[1.12793806 6.01283306 4.80295376 2.31765469 2.56821713 5.87739497
- 1.10192652 0.38825389 2.85468004 3.26458189]</t>
+          <t>[0.53434915 0.85906723 6.57743939 1.99114635 2.21618005 6.02378632
+ 0.59883951 0.41219379 0.38596455 0.37742666]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.18569846 0.16997279 0.2816017  0.38235246 0.55411158 0.57318741
- 0.16551628 0.05033696 0.35015214 0.36688346]</t>
+          <t>[0.08058819 0.01818765 0.31719071 0.25335198 0.43203626 0.58060608
+ 0.07045963 0.05458236 0.03873919 0.03469651]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[49.23076923 50.76923077 46.15384615 55.38461538 53.84615385 40.
- 52.30769231 52.30769231 46.15384615 52.30769231]</t>
+          <t>[38.46153846 32.30769231 44.61538462 49.23076923 43.07692308 47.69230769
+ 46.15384615 44.61538462 53.84615385 35.38461538]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.77 $\pm$ 0.39 &amp; 3.03 $\pm$ 1.88 &amp; 0.31 $\pm$ 16.22 &amp; 49.85 $\pm$ 4.36 &amp; 18 $\pm$ 2</t>
+          <t>GEN-NMR &amp; 0.52 $\pm$ 0.54 &amp; 2.00 $\pm$ 2.24 &amp; 0.19 $\pm$ 18.77 &amp; 43.54 $\pm$ 6.19 &amp; 18 $\pm$ 2</t>
         </is>
       </c>
     </row>
@@ -2366,17 +2366,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.39 (0.17)</t>
+          <t>0.37 (0.17)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.04 (0.02)</t>
+          <t>0.03 (0.02)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>43.69 (9.13)</t>
+          <t>45.23 (7.76)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: prod, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: minmax, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.15880406 0.14052696 0.12112939 0.07991196 0.0675195  0.09527345
- 0.07956168 0.08287569 0.07519327 0.09869345]</t>
+          <t>[0.154516   0.13741786 0.11962705 0.06473232 0.06826983 0.09483542
+ 0.08201424 0.07449849 0.07516976 0.08346077]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.60472738 0.77085575 0.49340096 0.2547367  0.2125384  0.4002123
- 0.25086732 0.28385274 0.28278609 0.32157659]</t>
+          <t>[0.58839838 0.75380091 0.48728141 0.20634828 0.21490028 0.39837229
+ 0.25860052 0.25516048 0.2826977  0.27194338]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.09339745 0.01551037 0.02170059 0.03238449 0.03828868 0.03004014
- 0.04136738 0.03453343 0.02920218 0.02807042]</t>
+          <t>[0.0806692  0.01462621 0.02227107 0.02550058 0.03916482 0.0298413
+ 0.04245061 0.02969056 0.0284083  0.02419457]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[53.84615385 35.38461538 35.38461538 61.53846154 55.38461538 40.
- 38.46153846 43.07692308 38.46153846 35.38461538]</t>
+          <t>[55.38461538 32.30769231 38.46153846 53.84615385 56.92307692 40.
+ 41.53846154 49.23076923 41.53846154 43.07692308]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.10 $\pm$ 0.03 &amp; 0.39 $\pm$ 0.17 &amp; 0.04 $\pm$ 2.03 &amp; 43.69 $\pm$ 9.13 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.10 $\pm$ 0.03 &amp; 0.37 $\pm$ 0.17 &amp; 0.03 $\pm$ 1.74 &amp; 45.23 $\pm$ 7.76 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,22 +2435,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.09 (0.03)</t>
+          <t>0.09 (0.02)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.37 (0.17)</t>
+          <t>0.34 (0.16)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.03 (0.02)</t>
+          <t>0.03 (0.01)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>45.85 (10.15)</t>
+          <t>45.38 (8.90)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2460,31 +2460,31 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: MAE, fuzzy\_operator: max, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.14240975 0.13904787 0.12113718 0.0616425  0.06503323 0.0978424
- 0.07985784 0.07094125 0.0752217  0.08410496]</t>
+          <t>[0.07395438 0.13625346 0.12042164 0.06215827 0.06527903 0.09443155
+ 0.0798167  0.07179087 0.07488662 0.08331759]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.54229767 0.76274227 0.49343267 0.19649881 0.20471209 0.41100363
- 0.25180115 0.24297678 0.28289304 0.27404235]</t>
+          <t>[0.28161898 0.74741362 0.49051803 0.19814294 0.20548582 0.39667574
+ 0.25167143 0.24588674 0.28163285 0.27147685]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.07498637 0.01476019 0.02277615 0.02452398 0.03537633 0.03235846
- 0.04103878 0.02915657 0.02856742 0.02449035]</t>
+          <t>[0.03765459 0.01483392 0.0218623  0.0247763  0.03540672 0.03009294
+ 0.04089754 0.02922975 0.02839228 0.02440046]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[60.         32.30769231 40.         56.92307692 63.07692308 40.
- 40.         49.23076923 36.92307692 40.        ]</t>
+          <t>[50.76923077 32.30769231 38.46153846 56.92307692 63.07692308 41.53846154
+ 40.         47.69230769 38.46153846 44.61538462]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.09 $\pm$ 0.03 &amp; 0.37 $\pm$ 0.17 &amp; 0.03 $\pm$ 1.56 &amp; 45.85 $\pm$ 10.15 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.09 $\pm$ 0.02 &amp; 0.34 $\pm$ 0.16 &amp; 0.03 $\pm$ 0.74 &amp; 45.38 $\pm$ 8.90 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.50 (0.48)</t>
+          <t>0.52 (0.49)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.89 (1.95)</t>
+          <t>1.99 (1.99)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.18 (0.17)</t>
+          <t>0.19 (0.17)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>46.46 (5.54)</t>
+          <t>46.92 (5.21)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: mean, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.20850001 0.14435783 1.43770829 0.61194802 0.79322906 1.24722509
- 0.12475147 0.11472712 0.12981807 0.16395182]</t>
+          <t>[0.25462231 0.20570803 1.52398531 0.64690389 0.78951445 1.24038138
+ 0.11838377 0.12117356 0.12806161 0.16469055]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.79396999 0.79186987 5.85627179 1.95071687 2.49693242 5.23918071
- 0.39335603 0.39294522 0.48821851 0.53421037]</t>
+          <t>[0.96960415 1.12840424 6.20770726 2.06214629 2.48523956 5.21043253
+ 0.37327794 0.41502453 0.48161282 0.53661741]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.11616186 0.01733478 0.29288506 0.24142905 0.4703617  0.47044658
- 0.06421322 0.0536768  0.0500236  0.04644984]</t>
+          <t>[0.14525615 0.02723894 0.30042788 0.32868948 0.46220781 0.46041911
+ 0.06226081 0.05611473 0.04978413 0.04672342]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[50.76923077 40.         53.84615385 52.30769231 50.76923077 50.76923077
- 43.07692308 44.61538462 40.         38.46153846]</t>
+          <t>[52.30769231 49.23076923 52.30769231 52.30769231 46.15384615 50.76923077
+ 40.         46.15384615 36.92307692 43.07692308]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.50 $\pm$ 0.48 &amp; 1.89 $\pm$ 1.95 &amp; 0.18 $\pm$ 16.73 &amp; 46.46 $\pm$ 5.54 &amp; "-"</t>
+          <t>R-NMR &amp; 0.52 $\pm$ 0.49 &amp; 1.99 $\pm$ 1.99 &amp; 0.19 $\pm$ 16.78 &amp; 46.92 $\pm$ 5.21 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.35 (0.16)</t>
+          <t>0.35 (0.17)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>46.15 (7.72)</t>
+          <t>46.31 (8.50)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.08674978 0.13614425 0.12856432 0.06752362 0.07585063 0.09485681
- 0.08067285 0.071368   0.07475593 0.08334955]</t>
+          <t>[0.07648357 0.14015859 0.13315743 0.07395668 0.07002345 0.09611905
+ 0.08050986 0.07114264 0.07493016 0.08348068]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.33034399 0.74681456 0.52368594 0.21524618 0.23876317 0.39846214
- 0.25437098 0.24443842 0.28114136 0.27158097]</t>
+          <t>[0.29125016 0.76883507 0.5423952  0.23575294 0.22042036 0.40376438
+ 0.25385705 0.24366654 0.28179662 0.27200825]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.04475075 0.01460184 0.0246595  0.02781772 0.03987599 0.03041246
- 0.04165658 0.02898216 0.02839243 0.02424069]</t>
+          <t>[0.03917968 0.0153123  0.02570767 0.0307908  0.03710062 0.03074661
+ 0.04165721 0.02890165 0.02860148 0.02433462]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[52.30769231 36.92307692 40.         52.30769231 63.07692308 43.07692308
- 40.         50.76923077 41.53846154 41.53846154]</t>
+          <t>[53.84615385 33.84615385 44.61538462 52.30769231 64.61538462 38.46153846
+ 40.         49.23076923 41.53846154 44.61538462]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.09 $\pm$ 0.02 &amp; 0.35 $\pm$ 0.16 &amp; 0.03 $\pm$ 0.87 &amp; 46.15 $\pm$ 7.72 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.09 $\pm$ 0.02 &amp; 0.35 $\pm$ 0.17 &amp; 0.03 $\pm$ 0.74 &amp; 46.31 $\pm$ 8.50 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.48 (0.22)</t>
+          <t>0.49 (0.23)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>46.46 (7.96)</t>
+          <t>46.15 (8.68)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.07734563 0.13520169 0.20591654 0.13468534 0.16458885 0.19134871
- 0.0809107  0.08157463 0.08876861 0.1016855 ]</t>
+          <t>[0.08180226 0.13664056 0.21105575 0.14371712 0.15429501 0.19709438
+ 0.08150573 0.0765458  0.08793588 0.1007386 ]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.29453288 0.74164418 0.83876768 0.42933868 0.51809402 0.80379273
- 0.25512096 0.27939656 0.3338401  0.33132571]</t>
+          <t>[0.31150376 0.74953701 0.8597014  0.45812946 0.48569099 0.82792842
+ 0.25699713 0.26217259 0.33070837 0.32824036]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.04015486 0.01493379 0.04405949 0.05751446 0.09279586 0.06962447
- 0.04156069 0.03500328 0.03333562 0.03100181]</t>
+          <t>[0.04371278 0.0150781  0.04546495 0.06146739 0.08700686 0.07168591
+ 0.04209748 0.03238579 0.03288737 0.03082715]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[52.30769231 35.38461538 41.53846154 55.38461538 63.07692308 43.07692308
- 41.53846154 49.23076923 40.         43.07692308]</t>
+          <t>[53.84615385 35.38461538 44.61538462 52.30769231 66.15384615 36.92307692
+ 41.53846154 46.15384615 41.53846154 43.07692308]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.13 $\pm$ 0.05 &amp; 0.48 $\pm$ 0.22 &amp; 0.05 $\pm$ 2.10 &amp; 46.46 $\pm$ 7.96 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.13 $\pm$ 0.05 &amp; 0.49 $\pm$ 0.23 &amp; 0.05 $\pm$ 2.04 &amp; 46.15 $\pm$ 8.68 &amp; "-"</t>
         </is>
       </c>
     </row>
